--- a/data/CS5/case18_3/case18_3_base.xlsx
+++ b/data/CS5/case18_3/case18_3_base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS3\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74964937-D8FC-45F5-ABDB-502B806D87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07200EB2-0252-4D0D-8DFE-24A4E6862400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
